--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>jueves 01-09</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domingo 04-09 </t>
   </si>
 </sst>
 </file>
@@ -353,13 +356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -374,6 +380,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>jueves 01-09</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">domingo 04-09 </t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +391,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,24 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>jueves 01-09</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>sabado03-09</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t xml:space="preserve">domingo 04-09 </t>
   </si>
   <si>
-    <t>8h</t>
+    <t>martes 06-11</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,28 +370,110 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>jueves 01-09</t>
-  </si>
-  <si>
-    <t>sabado03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domingo 04-09 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>martes 06-11</t>
   </si>
@@ -42,6 +33,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>jueves 08-11</t>
+  </si>
+  <si>
+    <t>domingo 04-11</t>
+  </si>
+  <si>
+    <t>sabado 03-11</t>
+  </si>
+  <si>
+    <t>jueves 01-11</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,54 +375,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,11 +475,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>21</v>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>martes 06-11</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>jueves 01-11</t>
+  </si>
+  <si>
+    <t>sabado 10-11</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,8 +432,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +485,7 @@
       </c>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>martes 06-11</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>sabado 10-11</t>
+  </si>
+  <si>
+    <t>martes 13-11</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,8 +443,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +491,7 @@
       </c>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>martes 06-11</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>martes 13-11</t>
+  </si>
+  <si>
+    <t>sabado 17-11</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,8 +454,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,7 +497,7 @@
       </c>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>34.5</v>
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>
